--- a/df_list_20250205.xlsx
+++ b/df_list_20250205.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="398">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -859,16 +859,368 @@
   </si>
   <si>
     <t>흥룡・호암 자연재해위험개선지구 정비사업 공법선정위원회 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>충청도_태안군</t>
+  </si>
+  <si>
+    <t>http://eminwon.taean.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>태안군보건의료원 이전신축 사업 건축설계 용역 제안공모 심사위원 명단 공고</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>전주시 통합재정안정화기금운용심의위원회 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A129</t>
+  </si>
+  <si>
+    <t>전라도_무주군</t>
+  </si>
+  <si>
+    <t>https://eminwon.muju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;subCheck=Y</t>
+  </si>
+  <si>
+    <t>무주 태권브이랜드 로봇 격납고 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>경상도_경산시</t>
+  </si>
+  <si>
+    <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 공고(임당유적전시관 개관 기념 특별기획전시회 전시설계 및 제작·설치)</t>
+  </si>
+  <si>
+    <t>하수처리공법선정 위원회 평가결과 공개(용성면 부일리 마을하수도 처리시설 설치공사)</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>「덕촌리(리도202호선)도로개설공사 외 2개소 실시설계용역 중 덕촌리(리도202호선)도로개설공사(합성형라멘교)」 공법선정위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>「덕촌리(리도202호선)도로개설공사 외 2개소 실시설계용역 중 송서-덕양간 도로개설공사(개량형PSC거더교)」 공법선정위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자)모집 공고(2025년 청도군 유튜브 운영 및 콘텐츠 제작)</t>
+  </si>
+  <si>
+    <t>『성곡댐 생태관광벨트 조성사업』 신기술·특허공법 선정 기술제안서 공법선정 기술제안서 제출(재공고)</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>2025년도 칠곡군 소식지 기획 및 제작 용역 제안공모 제안서 평가결과 공개</t>
+  </si>
+  <si>
+    <t>https://www.chungnam.go.kr/cnportal/province/province/list.do?menuNo=500487&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
+  </si>
+  <si>
+    <t>「부산시 수질오염총량관리 시행계획 2024년도 이행평가 용역」제안서 평가위원 후보자 모집</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=6</t>
+  </si>
+  <si>
+    <t>&amp;#65378;2025년 제1회 부산광역시 식품진흥기금운용심의위원회&amp;#65379;  심의결과 공고</t>
+  </si>
+  <si>
+    <t>제안서 평가위원 후보자 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=3</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
+  </si>
+  <si>
+    <t>2025년 4급 과장급 승진후보자 역량평가 운영용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>경기북부야생동물생태관찰원 조성 기본구상 및 타당성 조사 용역 제안서평가 예비위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>2025년 톡!톡! 내 몸 스캐너 연구 제안서 평가위원(후보자) 공개모집</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=3</t>
+  </si>
+  <si>
+    <t>「2025 경기도 시내버스업체 경영 및 서비스 평가 용역」제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=5</t>
+  </si>
+  <si>
+    <t>2025년 경기도 주민참여예산 주민제안사업 집중접수 공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=6</t>
+  </si>
+  <si>
+    <t>2025년 경기도 잣향기푸른숲 산림복지서비스운영 및 산림치유운영사업 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>2025년 경기도 잣향기푸른숲 숲해설운영사업 및 유아숲교육 운영사업 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=7</t>
+  </si>
+  <si>
+    <t>25년 경기도 지식(GSEEK) 온라인교육 콘텐츠개발 용역 사업 제안서 평가위원 후보자 모집공고</t>
+  </si>
+  <si>
+    <t>A027</t>
+  </si>
+  <si>
+    <t>충북고시공고</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>충청북도사회서비스원 정책심의위원회 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>「2025년 산림문화체험센터 숲해설 위탁용역」 제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.suwon.go.kr/web/saeallOfr/BD_ofrList.do?q_currPage=8</t>
+  </si>
+  <si>
+    <t>https://www.guri.go.kr/www/selectGosiNttList.do?key=387&amp;searchGosiSe=01,04,06&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A050</t>
+  </si>
+  <si>
+    <t>경기도_부천시</t>
+  </si>
+  <si>
+    <t>https://eminwon.bucheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?epcCheck=Y</t>
+  </si>
+  <si>
+    <t>부천시 공공갈등관리심의위원회 위원 공개모집</t>
+  </si>
+  <si>
+    <t>2026년 주민자치회 자치계획사업 주민제안 공모 공고</t>
+  </si>
+  <si>
+    <t>A056</t>
+  </si>
+  <si>
+    <t>경기도_안산시</t>
+  </si>
+  <si>
+    <t>https://www.ansan.go.kr/www/common/bbs/selectPageListBbs.do?bbs_code=WWW13&amp;currentPage=3</t>
+  </si>
+  <si>
+    <t>2025년 제2회 안산시 경관위원회 심의결과 공개</t>
+  </si>
+  <si>
+    <t>「2025 안성 시詩 축제 운영 용역」제안서 평가위원 후보자 모집 공고</t>
+  </si>
+  <si>
+    <t>「2025년 오산시 유아숲체험원 운영 용역」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>2025년 제1회 건축(해체)전문위원회 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>A079</t>
+  </si>
+  <si>
+    <t>강원도_원주시</t>
+  </si>
+  <si>
+    <t>https://www.wonju.go.kr/www/selectBbsNttList.do?bbsNo=140&amp;key=216&amp;pageUnit=40</t>
+  </si>
+  <si>
+    <t>문막 공공하수처리시설 총인처리시설 교체공사 처리공법 선정 기술제안서 제출안내 및 입찰공고NEW</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=1</t>
+  </si>
+  <si>
+    <t>음식물류폐기물 자원화시설 주변지역 주민지원기금 기금운용심의위원회 위원 모집 공고 결의</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=3</t>
+  </si>
+  <si>
+    <t>A083</t>
+  </si>
+  <si>
+    <t>강원도_양구군</t>
+  </si>
+  <si>
+    <t>https://www.yanggu.go.kr/user_sub?gfnc=www&amp;mu_idx=226&amp;pgsize=100</t>
+  </si>
+  <si>
+    <t>[양구군 공고 제2025-185호] 「양구군 생활폐기물 소각시설 및 전처리시설 운영 민간위탁용역」제안서 평        ...</t>
+  </si>
+  <si>
+    <t>A086</t>
+  </si>
+  <si>
+    <t>강원도_인제군</t>
+  </si>
+  <si>
+    <t>https://www.inje.go.kr/portal/adm/bulletin/notify</t>
+  </si>
+  <si>
+    <t>『테마형 접경거점지역 호수산책로 조성사업』 기술제안 질의사항 회신 공고</t>
+  </si>
+  <si>
+    <t>https://www.cwg.go.kr/www/selectBbsNttList.do?bbsNo=25&amp;key=1226&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=5</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>충청도_영동군</t>
+  </si>
+  <si>
+    <t>https://www.yd21.go.kr/kr/html/sub02/020103.html</t>
+  </si>
+  <si>
+    <t>2025년 영동군 숲해설 위탁 운영사업 제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>월류봉 출렁다리 설치 사업 특정공법(신기술·특허) 선정을 위한 기술제안서 제출 안내 재공고</t>
+  </si>
+  <si>
+    <t>2025년 제1차 옥천군 보육정책위원회 심의결과 공고새글</t>
+  </si>
+  <si>
+    <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>전라도_김제시</t>
+  </si>
+  <si>
+    <t>https://www.gimje.go.kr/board/list.gimje?boardId=BBS_0000044&amp;menuCd=DOM_000000104003000000&amp;contentsSid=196&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>2025 모악산 뮤직페스티벌 행사대행 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gochang.go.kr/index.gochang?menuCd=DOM_000000102003007000&amp;startPage2=2</t>
+  </si>
+  <si>
+    <t>A130</t>
+  </si>
+  <si>
+    <t>전라도_부안군</t>
+  </si>
+  <si>
+    <t>https://www.buan.go.kr/board/list.buan?boardId=BBS_0000054&amp;menuCd=DOM_000000103001003000&amp;contentsSid=84&amp;startPage=2</t>
+  </si>
+  <si>
+    <t>2025년 부안군 노후슬레이트 처리지원 사업 민간위탁 수탁기관 선정심의위원회 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.naju.go.kr/www/administration/notice/legislation?page=2</t>
+  </si>
+  <si>
+    <t>https://www.mokpo.go.kr/www/mokpo_news/notification/public_notice?page=2</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>순천시 주민복지시설 심의위원회 위원 모집 재공고</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=2</t>
+  </si>
+  <si>
+    <t>A187</t>
+  </si>
+  <si>
+    <t>경상도_김해시</t>
+  </si>
+  <si>
+    <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=1</t>
+  </si>
+  <si>
+    <t>「김해시 지하시설물(상・하수도) 정보 수정・갱신 사업」 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.sacheon.go.kr/news/00009/00014.web?cpage=3</t>
+  </si>
+  <si>
+    <t>https://www.tongyeong.go.kr/00852/00853/00858.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>https://www.cng.go.kr/01541/01539/01553.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>「부곡 온정천 구름다리 조성사업」특정공법 선정을 위한 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>https://www.hadong.go.kr/media/00012.web?cpage=3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -890,6 +1242,17 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -920,7 +1283,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -931,6 +1294,18 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3094,131 +3469,2506 @@
         <v>45693.548726851855</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F99" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F100" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F101" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F102" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F103" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F104" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F105" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F106" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F107" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F108" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F109" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F110" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F111" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F112" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F113" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F114" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F115" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F116" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F117" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F118" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F119" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F120" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F121" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F122" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F123" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F124" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F125" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F126" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F127" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F128" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F129" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E130" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F130" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F131" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E132" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F132" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F133" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F134" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F135" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F136" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F137" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F138" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F139" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F140" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F141" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F142" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E143" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F143" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E144" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F144" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E145" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F145" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F146" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E147" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F147" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E148" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F148" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E149" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F149" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E150" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F150" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E151" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F151" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E152" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F152" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E153" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F153" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E154" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F154" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E155" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F155" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E156" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F156" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E157" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F157" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E158" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F158" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E159" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F159" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E160" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F160" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E161" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F161" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E162" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F162" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E163" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F163" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E164" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F164" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E165" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F165" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E166" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F166" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E167" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F167" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E168" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F168" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E169" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F169" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E170" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F170" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E171" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F171" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E172" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F172" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E173" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F173" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E174" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F174" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E175" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F175" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E176" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F176" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E177" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F177" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E178" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F178" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E179" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F179" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E180" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F180" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E181" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F181" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E182" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F182" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E183" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F183" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E184" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F184" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E185" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F185" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E186" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F186" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E187" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F187" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E188" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F188" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E189" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F189" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F190" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F191" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F192" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F193" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E194" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F194" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E195" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F195" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E196" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F196" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E197" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F197" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E198" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F198" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E199" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F199" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E200" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F200" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E201" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F201" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E202" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F202" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E203" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F203" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E204" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F204" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E205" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F205" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E206" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F206" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E207" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F207" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E208" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F208" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E209" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F209" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E210" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F210" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E211" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F211" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E212" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F212" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E213" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F213" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E214" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F214" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E215" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F215" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E216" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F216" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E217" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F217" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E218" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F218" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E219" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F219" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E220" s="7">
+        <v>45692.0</v>
+      </c>
+      <c r="F220" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E221" s="7">
+        <v>45691.0</v>
+      </c>
+      <c r="F221" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E222" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F222" s="8">
+        <v>45693.97400462963</v>
+      </c>
+    </row>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
@@ -3998,9 +6748,136 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C98"/>
+    <hyperlink r:id="rId2" ref="C99"/>
+    <hyperlink r:id="rId3" ref="C100"/>
+    <hyperlink r:id="rId4" ref="C101"/>
+    <hyperlink r:id="rId5" ref="C102"/>
+    <hyperlink r:id="rId6" ref="C103"/>
+    <hyperlink r:id="rId7" ref="C104"/>
+    <hyperlink r:id="rId8" ref="C105"/>
+    <hyperlink r:id="rId9" ref="C106"/>
+    <hyperlink r:id="rId10" ref="C107"/>
+    <hyperlink r:id="rId11" ref="C108"/>
+    <hyperlink r:id="rId12" ref="C109"/>
+    <hyperlink r:id="rId13" ref="C110"/>
+    <hyperlink r:id="rId14" ref="C111"/>
+    <hyperlink r:id="rId15" location="list/1" ref="C112"/>
+    <hyperlink r:id="rId16" location="list/1" ref="C113"/>
+    <hyperlink r:id="rId17" location="list/1" ref="C114"/>
+    <hyperlink r:id="rId18" location="list/1" ref="C115"/>
+    <hyperlink r:id="rId19" location="list/1" ref="C116"/>
+    <hyperlink r:id="rId20" location="list/1" ref="C117"/>
+    <hyperlink r:id="rId21" location="list/1" ref="C118"/>
+    <hyperlink r:id="rId22" location="list/1" ref="C119"/>
+    <hyperlink r:id="rId23" ref="C120"/>
+    <hyperlink r:id="rId24" ref="C121"/>
+    <hyperlink r:id="rId25" ref="C122"/>
+    <hyperlink r:id="rId26" ref="C123"/>
+    <hyperlink r:id="rId27" ref="C124"/>
+    <hyperlink r:id="rId28" ref="C125"/>
+    <hyperlink r:id="rId29" ref="C126"/>
+    <hyperlink r:id="rId30" ref="C127"/>
+    <hyperlink r:id="rId31" ref="C128"/>
+    <hyperlink r:id="rId32" ref="C129"/>
+    <hyperlink r:id="rId33" location="page=1" ref="C130"/>
+    <hyperlink r:id="rId34" location="page=1" ref="C131"/>
+    <hyperlink r:id="rId35" location="page=1" ref="C132"/>
+    <hyperlink r:id="rId36" location="page=3" ref="C133"/>
+    <hyperlink r:id="rId37" location="page=5" ref="C134"/>
+    <hyperlink r:id="rId38" location="page=6" ref="C135"/>
+    <hyperlink r:id="rId39" location="page=6" ref="C136"/>
+    <hyperlink r:id="rId40" location="page=7" ref="C137"/>
+    <hyperlink r:id="rId41" ref="C138"/>
+    <hyperlink r:id="rId42" ref="C139"/>
+    <hyperlink r:id="rId43" ref="C140"/>
+    <hyperlink r:id="rId44" ref="C141"/>
+    <hyperlink r:id="rId45" ref="C142"/>
+    <hyperlink r:id="rId46" ref="C143"/>
+    <hyperlink r:id="rId47" ref="C144"/>
+    <hyperlink r:id="rId48" ref="C145"/>
+    <hyperlink r:id="rId49" ref="C146"/>
+    <hyperlink r:id="rId50" ref="C147"/>
+    <hyperlink r:id="rId51" ref="C148"/>
+    <hyperlink r:id="rId52" ref="C149"/>
+    <hyperlink r:id="rId53" ref="C150"/>
+    <hyperlink r:id="rId54" ref="C151"/>
+    <hyperlink r:id="rId55" ref="C152"/>
+    <hyperlink r:id="rId56" ref="C153"/>
+    <hyperlink r:id="rId57" ref="C154"/>
+    <hyperlink r:id="rId58" ref="C155"/>
+    <hyperlink r:id="rId59" ref="C156"/>
+    <hyperlink r:id="rId60" ref="C157"/>
+    <hyperlink r:id="rId61" ref="C158"/>
+    <hyperlink r:id="rId62" ref="C159"/>
+    <hyperlink r:id="rId63" ref="C160"/>
+    <hyperlink r:id="rId64" ref="C161"/>
+    <hyperlink r:id="rId65" ref="C162"/>
+    <hyperlink r:id="rId66" ref="C163"/>
+    <hyperlink r:id="rId67" ref="C164"/>
+    <hyperlink r:id="rId68" ref="C165"/>
+    <hyperlink r:id="rId69" ref="C166"/>
+    <hyperlink r:id="rId70" ref="C167"/>
+    <hyperlink r:id="rId71" ref="C168"/>
+    <hyperlink r:id="rId72" ref="C169"/>
+    <hyperlink r:id="rId73" ref="C170"/>
+    <hyperlink r:id="rId74" ref="C171"/>
+    <hyperlink r:id="rId75" ref="C172"/>
+    <hyperlink r:id="rId76" ref="C173"/>
+    <hyperlink r:id="rId77" ref="C174"/>
+    <hyperlink r:id="rId78" ref="C175"/>
+    <hyperlink r:id="rId79" ref="C176"/>
+    <hyperlink r:id="rId80" ref="C177"/>
+    <hyperlink r:id="rId81" ref="C178"/>
+    <hyperlink r:id="rId82" ref="C179"/>
+    <hyperlink r:id="rId83" ref="C180"/>
+    <hyperlink r:id="rId84" ref="C181"/>
+    <hyperlink r:id="rId85" ref="C182"/>
+    <hyperlink r:id="rId86" ref="C183"/>
+    <hyperlink r:id="rId87" ref="C184"/>
+    <hyperlink r:id="rId88" ref="C185"/>
+    <hyperlink r:id="rId89" ref="C186"/>
+    <hyperlink r:id="rId90" ref="C187"/>
+    <hyperlink r:id="rId91" ref="C188"/>
+    <hyperlink r:id="rId92" ref="C189"/>
+    <hyperlink r:id="rId93" ref="C190"/>
+    <hyperlink r:id="rId94" ref="C191"/>
+    <hyperlink r:id="rId95" ref="C192"/>
+    <hyperlink r:id="rId96" ref="C193"/>
+    <hyperlink r:id="rId97" ref="C194"/>
+    <hyperlink r:id="rId98" ref="C195"/>
+    <hyperlink r:id="rId99" ref="C196"/>
+    <hyperlink r:id="rId100" ref="C197"/>
+    <hyperlink r:id="rId101" ref="C198"/>
+    <hyperlink r:id="rId102" ref="C199"/>
+    <hyperlink r:id="rId103" ref="C200"/>
+    <hyperlink r:id="rId104" ref="C201"/>
+    <hyperlink r:id="rId105" ref="C202"/>
+    <hyperlink r:id="rId106" ref="C203"/>
+    <hyperlink r:id="rId107" ref="C204"/>
+    <hyperlink r:id="rId108" ref="C205"/>
+    <hyperlink r:id="rId109" ref="C206"/>
+    <hyperlink r:id="rId110" ref="C207"/>
+    <hyperlink r:id="rId111" ref="C208"/>
+    <hyperlink r:id="rId112" ref="C209"/>
+    <hyperlink r:id="rId113" ref="C210"/>
+    <hyperlink r:id="rId114" ref="C211"/>
+    <hyperlink r:id="rId115" ref="C212"/>
+    <hyperlink r:id="rId116" ref="C213"/>
+    <hyperlink r:id="rId117" ref="C214"/>
+    <hyperlink r:id="rId118" ref="C215"/>
+    <hyperlink r:id="rId119" ref="C216"/>
+    <hyperlink r:id="rId120" ref="C217"/>
+    <hyperlink r:id="rId121" ref="C218"/>
+    <hyperlink r:id="rId122" ref="C219"/>
+    <hyperlink r:id="rId123" ref="C220"/>
+    <hyperlink r:id="rId124" ref="C221"/>
+    <hyperlink r:id="rId125" ref="C222"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId126"/>
 </worksheet>
 </file>